--- a/Global whether trends analysis.xlsx
+++ b/Global whether trends analysis.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansouza/Dropbox/Jonathan/Education/Udacity/Data Analyst Nanodegree/P1-Explore Weather trends/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansouza/ProgProjects/1-My GitHub Repos/3-Github Forks/weather-trends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44792597-F5E8-9144-A447-8567184C005D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D86978-E62B-9947-AA59-F806EE3D79BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global_data" sheetId="1" r:id="rId1"/>
-    <sheet name="Predictions" sheetId="2" r:id="rId2"/>
-    <sheet name="data" sheetId="3" r:id="rId3"/>
+    <sheet name="data" sheetId="3" r:id="rId2"/>
+    <sheet name="Predictions" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">global_data!$A$1:$J$267</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Predictions!$A$1:$H$666</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Predictions!$A$1:$H$666</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">global_data!$A$1:$Z$267</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">global_data!$1:$1</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Year</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Key considerations:</t>
   </si>
   <si>
-    <t>Wellington relations with the global warming impact</t>
-  </si>
-  <si>
     <t>2013 Temperature</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
   </si>
   <si>
     <t>1883 Temperature</t>
-  </si>
-  <si>
-    <t>Temperature increase predictions</t>
   </si>
   <si>
     <t>The global increase rate is higher than Wellington, which means the world itself has a more climate impact than Wellington.</t>
@@ -152,6 +146,28 @@
   </si>
   <si>
     <t>The Wellington city in New Zealand apparently does most effective environmental protective actions than another countries.</t>
+  </si>
+  <si>
+    <t>Decadal Average Temperature 
+New Zealand - Wellington X World</t>
+  </si>
+  <si>
+    <t>Climate Change Predictions</t>
+  </si>
+  <si>
+    <t>Decades</t>
+  </si>
+  <si>
+    <t>Axis x</t>
+  </si>
+  <si>
+    <t>Axis Y</t>
+  </si>
+  <si>
+    <t>Temperature C°</t>
+  </si>
+  <si>
+    <t>Climate Change Impact in 130 years</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1450,8 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Wellington relations with the global warming impact</c:v>
+              <c:v>Decadal Average Temperature 
+New Zealand - Wellington X World</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1452,11 +1469,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
@@ -1532,924 +1547,798 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>global_data!$A$2:$A$267</c:f>
+              <c:f>global_data!$A$132:$A$261</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="151"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
-                  <c:v>1863</c:v>
+                  <c:v>1880</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1864</c:v>
+                  <c:v>1881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1865</c:v>
+                  <c:v>1882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1866</c:v>
+                  <c:v>1883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1867</c:v>
+                  <c:v>1884</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1868</c:v>
+                  <c:v>1885</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1869</c:v>
+                  <c:v>1886</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1870</c:v>
+                  <c:v>1887</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1871</c:v>
+                  <c:v>1888</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1872</c:v>
+                  <c:v>1889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1873</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1874</c:v>
+                  <c:v>1891</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1875</c:v>
+                  <c:v>1892</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1876</c:v>
+                  <c:v>1893</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1877</c:v>
+                  <c:v>1894</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1878</c:v>
+                  <c:v>1895</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1879</c:v>
+                  <c:v>1896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1880</c:v>
+                  <c:v>1897</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1881</c:v>
+                  <c:v>1898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1882</c:v>
+                  <c:v>1899</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1883</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1884</c:v>
+                  <c:v>1901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1885</c:v>
+                  <c:v>1902</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1886</c:v>
+                  <c:v>1903</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1887</c:v>
+                  <c:v>1904</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1888</c:v>
+                  <c:v>1905</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1889</c:v>
+                  <c:v>1906</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1890</c:v>
+                  <c:v>1907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1891</c:v>
+                  <c:v>1908</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1892</c:v>
+                  <c:v>1909</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1893</c:v>
+                  <c:v>1910</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1894</c:v>
+                  <c:v>1911</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1895</c:v>
+                  <c:v>1912</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1896</c:v>
+                  <c:v>1913</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1897</c:v>
+                  <c:v>1914</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1898</c:v>
+                  <c:v>1915</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1899</c:v>
+                  <c:v>1916</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1900</c:v>
+                  <c:v>1917</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1901</c:v>
+                  <c:v>1918</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1902</c:v>
+                  <c:v>1919</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1903</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1904</c:v>
+                  <c:v>1921</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1905</c:v>
+                  <c:v>1922</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1906</c:v>
+                  <c:v>1923</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1907</c:v>
+                  <c:v>1924</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1908</c:v>
+                  <c:v>1925</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1909</c:v>
+                  <c:v>1926</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1910</c:v>
+                  <c:v>1927</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1911</c:v>
+                  <c:v>1928</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1912</c:v>
+                  <c:v>1929</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1913</c:v>
+                  <c:v>1930</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1914</c:v>
+                  <c:v>1931</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1915</c:v>
+                  <c:v>1932</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1916</c:v>
+                  <c:v>1933</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1917</c:v>
+                  <c:v>1934</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1918</c:v>
+                  <c:v>1935</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1919</c:v>
+                  <c:v>1936</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1920</c:v>
+                  <c:v>1937</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1921</c:v>
+                  <c:v>1938</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1922</c:v>
+                  <c:v>1939</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1923</c:v>
+                  <c:v>1940</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1924</c:v>
+                  <c:v>1941</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1925</c:v>
+                  <c:v>1942</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1926</c:v>
+                  <c:v>1943</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1927</c:v>
+                  <c:v>1944</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1928</c:v>
+                  <c:v>1945</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1929</c:v>
+                  <c:v>1946</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1930</c:v>
+                  <c:v>1947</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1931</c:v>
+                  <c:v>1948</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1932</c:v>
+                  <c:v>1949</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1933</c:v>
+                  <c:v>1950</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1934</c:v>
+                  <c:v>1951</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1935</c:v>
+                  <c:v>1952</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1936</c:v>
+                  <c:v>1953</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1937</c:v>
+                  <c:v>1954</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1938</c:v>
+                  <c:v>1955</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1939</c:v>
+                  <c:v>1956</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1940</c:v>
+                  <c:v>1957</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1941</c:v>
+                  <c:v>1958</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1942</c:v>
+                  <c:v>1959</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1943</c:v>
+                  <c:v>1960</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1944</c:v>
+                  <c:v>1961</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1945</c:v>
+                  <c:v>1962</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1946</c:v>
+                  <c:v>1963</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1947</c:v>
+                  <c:v>1964</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1948</c:v>
+                  <c:v>1965</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1949</c:v>
+                  <c:v>1966</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1950</c:v>
+                  <c:v>1967</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1951</c:v>
+                  <c:v>1968</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1952</c:v>
+                  <c:v>1969</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1953</c:v>
+                  <c:v>1970</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1954</c:v>
+                  <c:v>1971</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1955</c:v>
+                  <c:v>1972</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1956</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1957</c:v>
+                  <c:v>1974</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1958</c:v>
+                  <c:v>1975</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1959</c:v>
+                  <c:v>1976</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1960</c:v>
+                  <c:v>1977</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1961</c:v>
+                  <c:v>1978</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1962</c:v>
+                  <c:v>1979</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1963</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1964</c:v>
+                  <c:v>1981</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1965</c:v>
+                  <c:v>1982</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1966</c:v>
+                  <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1967</c:v>
+                  <c:v>1984</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1968</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1969</c:v>
+                  <c:v>1986</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1970</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1971</c:v>
+                  <c:v>1988</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1972</c:v>
+                  <c:v>1989</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1973</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1974</c:v>
+                  <c:v>1991</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1975</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1976</c:v>
+                  <c:v>1993</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1977</c:v>
+                  <c:v>1994</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1978</c:v>
+                  <c:v>1995</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1979</c:v>
+                  <c:v>1996</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1980</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1981</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1982</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1983</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1984</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1985</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1986</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1987</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1988</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1989</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1990</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1991</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="146">
                   <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>2013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>global_data!$C$2:$C$267</c:f>
+              <c:f>global_data!$C$132:$C$261</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="151"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
-                  <c:v>7.9909999999999997</c:v>
+                  <c:v>8.2690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9680000000000009</c:v>
+                  <c:v>8.2839999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9749999999999996</c:v>
+                  <c:v>8.2779999999999987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0039999999999996</c:v>
+                  <c:v>8.2409999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0719999999999992</c:v>
+                  <c:v>8.1750000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0869999999999997</c:v>
+                  <c:v>8.1809999999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.1049999999999986</c:v>
+                  <c:v>8.1679999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1290000000000013</c:v>
+                  <c:v>8.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1560000000000006</c:v>
+                  <c:v>8.0310000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2189999999999994</c:v>
+                  <c:v>8.0460000000000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2429999999999986</c:v>
+                  <c:v>8.0310000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>8.0059999999999985</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0080000000000009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0470000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0699999999999985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1510000000000016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.2789999999999981</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>8.2880000000000003</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.2559999999999985</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.2349999999999994</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.2449999999999992</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.302999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.2769999999999992</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.2690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.2839999999999989</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.2779999999999987</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.2409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.1750000000000007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.1809999999999992</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.1679999999999993</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.1050000000000004</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0310000000000006</c:v>
+                  <c:v>8.2960000000000012</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.0460000000000012</c:v>
+                  <c:v>8.3129999999999988</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0310000000000006</c:v>
+                  <c:v>8.2789999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.0059999999999985</c:v>
+                  <c:v>8.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8</c:v>
+                  <c:v>8.2580000000000009</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.0080000000000009</c:v>
+                  <c:v>8.23</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0470000000000006</c:v>
+                  <c:v>8.1939999999999991</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.0699999999999985</c:v>
+                  <c:v>8.1810000000000009</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.0960000000000001</c:v>
+                  <c:v>8.1890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.1340000000000003</c:v>
+                  <c:v>8.2390000000000008</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.1430000000000007</c:v>
+                  <c:v>8.2750000000000021</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.1510000000000016</c:v>
+                  <c:v>8.2600000000000016</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.2040000000000006</c:v>
+                  <c:v>8.2669999999999995</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.2560000000000002</c:v>
+                  <c:v>8.2609999999999992</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.2789999999999981</c:v>
+                  <c:v>8.2810000000000006</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.2949999999999999</c:v>
+                  <c:v>8.2949999999999982</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.2880000000000003</c:v>
+                  <c:v>8.3339999999999996</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.2960000000000012</c:v>
+                  <c:v>8.3580000000000005</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.3129999999999988</c:v>
+                  <c:v>8.370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.2789999999999999</c:v>
+                  <c:v>8.3620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.2799999999999994</c:v>
+                  <c:v>8.3560000000000016</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.2580000000000009</c:v>
+                  <c:v>8.4060000000000024</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.23</c:v>
+                  <c:v>8.4559999999999995</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.1939999999999991</c:v>
+                  <c:v>8.5059999999999985</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.1810000000000009</c:v>
+                  <c:v>8.4919999999999991</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.1890000000000001</c:v>
+                  <c:v>8.5189999999999984</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.2390000000000008</c:v>
+                  <c:v>8.5339999999999989</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.2750000000000021</c:v>
+                  <c:v>8.5639999999999983</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.2600000000000016</c:v>
+                  <c:v>8.5560000000000009</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.2669999999999995</c:v>
+                  <c:v>8.5680000000000014</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.2609999999999992</c:v>
+                  <c:v>8.5670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.2810000000000006</c:v>
+                  <c:v>8.5489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.2949999999999982</c:v>
+                  <c:v>8.5670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.3339999999999996</c:v>
+                  <c:v>8.59</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.3580000000000005</c:v>
+                  <c:v>8.6420000000000012</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.370000000000001</c:v>
+                  <c:v>8.6550000000000011</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.3620000000000001</c:v>
+                  <c:v>8.66</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.3560000000000016</c:v>
+                  <c:v>8.661999999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.4060000000000024</c:v>
+                  <c:v>8.7040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.4559999999999995</c:v>
+                  <c:v>8.7259999999999991</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.5059999999999985</c:v>
+                  <c:v>8.7319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.4919999999999991</c:v>
+                  <c:v>8.7449999999999992</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.5189999999999984</c:v>
+                  <c:v>8.754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.5339999999999989</c:v>
+                  <c:v>8.743999999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.5639999999999983</c:v>
+                  <c:v>8.7270000000000003</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.5560000000000009</c:v>
+                  <c:v>8.6880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.5680000000000014</c:v>
+                  <c:v>8.6740000000000013</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.5670000000000002</c:v>
+                  <c:v>8.6650000000000009</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.5489999999999995</c:v>
+                  <c:v>8.6760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.5670000000000002</c:v>
+                  <c:v>8.647000000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.59</c:v>
+                  <c:v>8.6519999999999992</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.6420000000000012</c:v>
+                  <c:v>8.6119999999999983</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.6550000000000011</c:v>
+                  <c:v>8.6050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.66</c:v>
+                  <c:v>8.6070000000000011</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.661999999999999</c:v>
+                  <c:v>8.6210000000000004</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.7040000000000006</c:v>
+                  <c:v>8.6419999999999995</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.7259999999999991</c:v>
+                  <c:v>8.6590000000000007</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.7319999999999993</c:v>
+                  <c:v>8.67</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.7449999999999992</c:v>
+                  <c:v>8.6690000000000005</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.754999999999999</c:v>
+                  <c:v>8.6539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.743999999999998</c:v>
+                  <c:v>8.6440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.7270000000000003</c:v>
+                  <c:v>8.6759999999999984</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.6880000000000006</c:v>
+                  <c:v>8.6729999999999983</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.6740000000000013</c:v>
+                  <c:v>8.6479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.6650000000000009</c:v>
+                  <c:v>8.6349999999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.6760000000000002</c:v>
+                  <c:v>8.6470000000000002</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.647000000000002</c:v>
+                  <c:v>8.6269999999999989</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.6519999999999992</c:v>
+                  <c:v>8.6019999999999985</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.6119999999999983</c:v>
+                  <c:v>8.6109999999999989</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.6050000000000004</c:v>
+                  <c:v>8.6170000000000009</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>8.6070000000000011</c:v>
+                  <c:v>8.6379999999999981</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>8.6210000000000004</c:v>
+                  <c:v>8.6129999999999978</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>8.6419999999999995</c:v>
+                  <c:v>8.6279999999999966</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>8.6590000000000007</c:v>
+                  <c:v>8.6449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.67</c:v>
+                  <c:v>8.6579999999999995</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.6690000000000005</c:v>
+                  <c:v>8.6860000000000017</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.6539999999999999</c:v>
+                  <c:v>8.7430000000000003</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.6440000000000001</c:v>
+                  <c:v>8.7570000000000014</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.6759999999999984</c:v>
+                  <c:v>8.7650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.6729999999999983</c:v>
+                  <c:v>8.7870000000000008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>8.6479999999999997</c:v>
+                  <c:v>8.7789999999999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>8.6349999999999998</c:v>
+                  <c:v>8.827</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>8.6470000000000002</c:v>
+                  <c:v>8.8409999999999993</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>8.6269999999999989</c:v>
+                  <c:v>8.8919999999999995</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>8.6019999999999985</c:v>
+                  <c:v>8.9109999999999996</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>8.6109999999999989</c:v>
+                  <c:v>8.9359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>8.6170000000000009</c:v>
+                  <c:v>8.9370000000000012</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>8.6379999999999981</c:v>
+                  <c:v>8.9570000000000025</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>8.6129999999999978</c:v>
+                  <c:v>8.9410000000000025</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>8.6279999999999966</c:v>
+                  <c:v>8.9760000000000026</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>8.6449999999999996</c:v>
+                  <c:v>9.0449999999999982</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>8.6579999999999995</c:v>
+                  <c:v>9.0659999999999989</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>8.6860000000000017</c:v>
+                  <c:v>9.0869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>8.7430000000000003</c:v>
+                  <c:v>9.1189999999999998</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>8.7570000000000014</c:v>
+                  <c:v>9.1560000000000006</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8.7650000000000006</c:v>
+                  <c:v>9.1529999999999987</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>8.7870000000000008</c:v>
+                  <c:v>9.1760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>8.7789999999999999</c:v>
+                  <c:v>9.2490000000000006</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>8.827</c:v>
+                  <c:v>9.3149999999999977</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>8.8409999999999993</c:v>
+                  <c:v>9.3429999999999982</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8.8919999999999995</c:v>
+                  <c:v>9.3779999999999983</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>8.9109999999999996</c:v>
+                  <c:v>9.4269999999999996</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>8.9359999999999999</c:v>
+                  <c:v>9.48</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>8.9370000000000012</c:v>
+                  <c:v>9.4710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>8.9570000000000025</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>8.9410000000000025</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>8.9760000000000026</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>9.0449999999999982</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>9.0659999999999989</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>9.0869999999999997</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>9.1189999999999998</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>9.1560000000000006</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>9.1529999999999987</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>9.1760000000000002</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>9.2490000000000006</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>9.3149999999999977</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>9.3429999999999982</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>9.3779999999999983</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>9.4269999999999996</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>9.48</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>9.4710000000000001</c:v>
-                </c:pt>
-                <c:pt idx="146">
                   <c:v>9.4930000000000021</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>9.543000000000001</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>9.5540000000000003</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>9.548</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>9.5560000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2495,924 +2384,798 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>global_data!$A$2:$A$267</c:f>
+              <c:f>global_data!$A$132:$A$261</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="151"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
-                  <c:v>1863</c:v>
+                  <c:v>1880</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1864</c:v>
+                  <c:v>1881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1865</c:v>
+                  <c:v>1882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1866</c:v>
+                  <c:v>1883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1867</c:v>
+                  <c:v>1884</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1868</c:v>
+                  <c:v>1885</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1869</c:v>
+                  <c:v>1886</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1870</c:v>
+                  <c:v>1887</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1871</c:v>
+                  <c:v>1888</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1872</c:v>
+                  <c:v>1889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1873</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1874</c:v>
+                  <c:v>1891</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1875</c:v>
+                  <c:v>1892</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1876</c:v>
+                  <c:v>1893</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1877</c:v>
+                  <c:v>1894</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1878</c:v>
+                  <c:v>1895</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1879</c:v>
+                  <c:v>1896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1880</c:v>
+                  <c:v>1897</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1881</c:v>
+                  <c:v>1898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1882</c:v>
+                  <c:v>1899</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1883</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1884</c:v>
+                  <c:v>1901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1885</c:v>
+                  <c:v>1902</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1886</c:v>
+                  <c:v>1903</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1887</c:v>
+                  <c:v>1904</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1888</c:v>
+                  <c:v>1905</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1889</c:v>
+                  <c:v>1906</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1890</c:v>
+                  <c:v>1907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1891</c:v>
+                  <c:v>1908</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1892</c:v>
+                  <c:v>1909</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1893</c:v>
+                  <c:v>1910</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1894</c:v>
+                  <c:v>1911</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1895</c:v>
+                  <c:v>1912</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1896</c:v>
+                  <c:v>1913</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1897</c:v>
+                  <c:v>1914</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1898</c:v>
+                  <c:v>1915</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1899</c:v>
+                  <c:v>1916</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1900</c:v>
+                  <c:v>1917</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1901</c:v>
+                  <c:v>1918</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1902</c:v>
+                  <c:v>1919</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1903</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1904</c:v>
+                  <c:v>1921</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1905</c:v>
+                  <c:v>1922</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1906</c:v>
+                  <c:v>1923</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1907</c:v>
+                  <c:v>1924</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1908</c:v>
+                  <c:v>1925</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1909</c:v>
+                  <c:v>1926</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1910</c:v>
+                  <c:v>1927</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1911</c:v>
+                  <c:v>1928</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1912</c:v>
+                  <c:v>1929</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1913</c:v>
+                  <c:v>1930</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1914</c:v>
+                  <c:v>1931</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1915</c:v>
+                  <c:v>1932</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1916</c:v>
+                  <c:v>1933</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1917</c:v>
+                  <c:v>1934</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1918</c:v>
+                  <c:v>1935</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1919</c:v>
+                  <c:v>1936</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1920</c:v>
+                  <c:v>1937</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1921</c:v>
+                  <c:v>1938</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1922</c:v>
+                  <c:v>1939</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1923</c:v>
+                  <c:v>1940</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1924</c:v>
+                  <c:v>1941</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1925</c:v>
+                  <c:v>1942</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1926</c:v>
+                  <c:v>1943</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1927</c:v>
+                  <c:v>1944</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1928</c:v>
+                  <c:v>1945</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1929</c:v>
+                  <c:v>1946</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1930</c:v>
+                  <c:v>1947</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1931</c:v>
+                  <c:v>1948</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1932</c:v>
+                  <c:v>1949</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1933</c:v>
+                  <c:v>1950</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1934</c:v>
+                  <c:v>1951</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1935</c:v>
+                  <c:v>1952</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1936</c:v>
+                  <c:v>1953</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1937</c:v>
+                  <c:v>1954</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1938</c:v>
+                  <c:v>1955</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1939</c:v>
+                  <c:v>1956</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1940</c:v>
+                  <c:v>1957</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1941</c:v>
+                  <c:v>1958</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1942</c:v>
+                  <c:v>1959</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1943</c:v>
+                  <c:v>1960</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1944</c:v>
+                  <c:v>1961</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1945</c:v>
+                  <c:v>1962</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1946</c:v>
+                  <c:v>1963</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1947</c:v>
+                  <c:v>1964</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1948</c:v>
+                  <c:v>1965</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1949</c:v>
+                  <c:v>1966</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1950</c:v>
+                  <c:v>1967</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1951</c:v>
+                  <c:v>1968</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1952</c:v>
+                  <c:v>1969</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1953</c:v>
+                  <c:v>1970</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1954</c:v>
+                  <c:v>1971</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1955</c:v>
+                  <c:v>1972</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1956</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1957</c:v>
+                  <c:v>1974</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1958</c:v>
+                  <c:v>1975</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1959</c:v>
+                  <c:v>1976</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1960</c:v>
+                  <c:v>1977</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1961</c:v>
+                  <c:v>1978</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1962</c:v>
+                  <c:v>1979</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1963</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1964</c:v>
+                  <c:v>1981</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1965</c:v>
+                  <c:v>1982</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1966</c:v>
+                  <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1967</c:v>
+                  <c:v>1984</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1968</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1969</c:v>
+                  <c:v>1986</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1970</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1971</c:v>
+                  <c:v>1988</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1972</c:v>
+                  <c:v>1989</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1973</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1974</c:v>
+                  <c:v>1991</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1975</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1976</c:v>
+                  <c:v>1993</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1977</c:v>
+                  <c:v>1994</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1978</c:v>
+                  <c:v>1995</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1979</c:v>
+                  <c:v>1996</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1980</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1981</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1982</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1983</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1984</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1985</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1986</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1987</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1988</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1989</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1990</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1991</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="146">
                   <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>2013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>global_data!$F$2:$F$267</c:f>
+              <c:f>global_data!$F$132:$F$261</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="151"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
+                  <c:v>12.471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.482000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.444000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.314</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.218999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.151999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.154</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.107999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.059000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.087</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.169</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.323</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.356999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.367999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.409000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.375999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.347000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.241000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>12.044</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.102999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.151999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.279</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.413</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.462</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.483000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.492999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.406000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.443000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.467999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.455</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.452</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12.403</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.431000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.418000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="26">
+                  <c:v>11.983000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.992999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.988999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.059000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.116000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.225999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.273</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.340999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.504</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.553999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.529000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>12.471</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.528</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.482000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12.444000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12.368</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.314</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12.218999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12.209999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12.151999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12.154</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12.107999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12.059000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.087</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12.169</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.297000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>12.323</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12.356999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12.367999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.409000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12.375999999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12.35</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12.347000000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>12.241000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>12.150000000000002</c:v>
-                </c:pt>
                 <c:pt idx="41">
-                  <c:v>12.07</c:v>
+                  <c:v>12.469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.044</c:v>
+                  <c:v>12.537000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11.983000000000001</c:v>
+                  <c:v>12.550999999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11.992999999999999</c:v>
+                  <c:v>12.629</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>11.988999999999999</c:v>
+                  <c:v>12.584</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12.059000000000001</c:v>
+                  <c:v>12.481999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12.116000000000001</c:v>
+                  <c:v>12.438999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12.16</c:v>
+                  <c:v>12.527999999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>12.2</c:v>
+                  <c:v>12.558</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>12.225999999999999</c:v>
+                  <c:v>12.520999999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>12.273</c:v>
+                  <c:v>12.472</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>12.340999999999999</c:v>
+                  <c:v>12.43</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12.504</c:v>
+                  <c:v>12.463000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12.553999999999998</c:v>
+                  <c:v>12.434000000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12.58</c:v>
+                  <c:v>12.532999999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12.529000000000002</c:v>
+                  <c:v>12.559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.471</c:v>
+                  <c:v>12.538999999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>12.469999999999999</c:v>
+                  <c:v>12.568999999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>12.537000000000001</c:v>
+                  <c:v>12.572999999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>12.550999999999998</c:v>
+                  <c:v>12.626999999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>12.664</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.699</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.678000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12.608999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.607999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>12.629</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>12.584</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>12.481999999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>12.438999999999998</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>12.527999999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>12.558</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>12.520999999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>12.472</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>12.43</c:v>
-                </c:pt>
                 <c:pt idx="70">
-                  <c:v>12.463000000000001</c:v>
+                  <c:v>12.672999999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>12.434000000000001</c:v>
+                  <c:v>12.669</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>12.532999999999999</c:v>
+                  <c:v>12.664999999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>12.559999999999999</c:v>
+                  <c:v>12.678000000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>12.538999999999998</c:v>
+                  <c:v>12.721</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>12.568999999999999</c:v>
+                  <c:v>12.809000000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.572999999999999</c:v>
+                  <c:v>12.894</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12.626999999999999</c:v>
+                  <c:v>12.937999999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>12.664</c:v>
+                  <c:v>12.931999999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12.720000000000002</c:v>
+                  <c:v>12.931000000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.699</c:v>
+                  <c:v>12.933000000000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>12.678000000000001</c:v>
+                  <c:v>12.977</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12.599999999999998</c:v>
+                  <c:v>13.059000000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12.608999999999998</c:v>
+                  <c:v>13.059999999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12.649999999999999</c:v>
+                  <c:v>13.035</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12.607999999999999</c:v>
+                  <c:v>12.961000000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>12.629</c:v>
+                  <c:v>12.868</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>12.672999999999998</c:v>
+                  <c:v>12.828999999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>12.669</c:v>
+                  <c:v>12.815000000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>12.664999999999999</c:v>
+                  <c:v>12.815000000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>12.678000000000001</c:v>
+                  <c:v>12.882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>12.721</c:v>
+                  <c:v>12.954999999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>12.809000000000001</c:v>
+                  <c:v>12.871</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>12.894</c:v>
+                  <c:v>12.924000000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>12.937999999999999</c:v>
+                  <c:v>12.971</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>12.931999999999999</c:v>
+                  <c:v>13.053999999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>12.931000000000001</c:v>
+                  <c:v>13.030000000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>12.933000000000002</c:v>
+                  <c:v>12.973000000000003</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>12.977</c:v>
+                  <c:v>13.002000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>13.059000000000001</c:v>
+                  <c:v>13.047000000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>13.059999999999999</c:v>
+                  <c:v>12.976999999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>13.035</c:v>
+                  <c:v>12.963999999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>12.961000000000002</c:v>
+                  <c:v>12.951999999999998</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>12.868</c:v>
+                  <c:v>12.895</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>12.828999999999999</c:v>
+                  <c:v>12.896000000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>12.815000000000001</c:v>
+                  <c:v>12.89</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>12.815000000000001</c:v>
+                  <c:v>12.975000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>12.882000000000001</c:v>
+                  <c:v>13.081</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>12.954999999999998</c:v>
+                  <c:v>13.097</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>12.871</c:v>
+                  <c:v>13.136999999999997</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>12.924000000000001</c:v>
+                  <c:v>13.218999999999999</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>12.971</c:v>
+                  <c:v>13.160999999999998</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>13.053999999999998</c:v>
+                  <c:v>13.113999999999999</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>13.030000000000001</c:v>
+                  <c:v>13.084</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>12.973000000000003</c:v>
+                  <c:v>13.044</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>13.002000000000001</c:v>
+                  <c:v>13.033000000000001</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>13.047000000000001</c:v>
+                  <c:v>13.024000000000001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>12.976999999999999</c:v>
+                  <c:v>12.974</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>12.963999999999999</c:v>
+                  <c:v>13.036000000000001</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>12.951999999999998</c:v>
+                  <c:v>13.066999999999998</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>12.895</c:v>
+                  <c:v>13.043000000000001</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>12.896000000000001</c:v>
+                  <c:v>13.119000000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>12.89</c:v>
+                  <c:v>13.233000000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>12.975000000000003</c:v>
+                  <c:v>13.327999999999999</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>13.081</c:v>
+                  <c:v>13.315000000000001</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>13.097</c:v>
+                  <c:v>13.363</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>13.136999999999997</c:v>
+                  <c:v>13.36</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>13.218999999999999</c:v>
+                  <c:v>13.426999999999998</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>13.160999999999998</c:v>
+                  <c:v>13.385000000000002</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>13.113999999999999</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>13.084</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>13.044</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>13.033000000000001</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>13.024000000000001</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>12.974</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>13.036000000000001</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>13.066999999999998</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>13.043000000000001</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>13.119000000000003</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>13.233000000000001</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>13.327999999999999</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>13.315000000000001</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>13.363</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>13.36</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>13.426999999999998</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>13.385000000000002</c:v>
-                </c:pt>
-                <c:pt idx="146">
                   <c:v>13.282</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>13.296000000000001</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>13.284000000000001</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>13.244999999999999</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>13.272000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3443,6 +3206,44 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3467,9 +3268,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3512,35 +3311,15 @@
         </c:majorGridlines>
         <c:title>
           <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Temperature C</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-NZ" sz="900" b="0" i="0" u="none" strike="noStrike" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>°</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
+            <c:strRef>
+              <c:f>data!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temperature C°</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
@@ -3557,9 +3336,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3590,9 +3367,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3629,11 +3404,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3649,28 +3422,15 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent2"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3679,7 +3439,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3706,7 +3473,45 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>data!$A$5</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Climate Change Impact in 130 years</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3762,17 +3567,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3898,17 +3699,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4004,6 +3801,41 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4029,9 +3861,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4062,11 +3892,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4074,7 +3902,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>Temperature C °</a:t>
                 </a:r>
               </a:p>
@@ -4093,11 +3921,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4139,11 +3965,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4167,10 +3991,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -4187,7 +4008,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4221,7 +4046,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Temperature increase predictions</c:v>
+              <c:v>Climate Change Predictions</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -4239,11 +4064,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
@@ -10430,6 +10253,44 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10454,9 +10315,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -10499,35 +10358,15 @@
         </c:majorGridlines>
         <c:title>
           <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Temperature C</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-NZ" sz="900" b="0" i="0" u="none" strike="noStrike" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>°</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
+            <c:strRef>
+              <c:f>data!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temperature C°</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
@@ -10544,9 +10383,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -10577,9 +10414,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -10616,11 +10451,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -10636,26 +10469,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -19471,8 +19287,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9465600" y="6658206"/>
-          <a:ext cx="6576627" cy="4387601"/>
+          <a:off x="9472438" y="6805721"/>
+          <a:ext cx="6563927" cy="4567355"/>
           <a:chOff x="9472438" y="6869221"/>
           <a:chExt cx="6563927" cy="4567355"/>
         </a:xfrm>
@@ -19554,7 +19370,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12179300" y="8953500"/>
+            <a:off x="11811000" y="8928100"/>
             <a:ext cx="762000" cy="228600"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -19586,10 +19402,10 @@
             <a:r>
               <a:rPr lang="en-GB" sz="1100">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Year 2096</a:t>
+              <a:t>Year 2696</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -22398,9 +22214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P127" sqref="P127"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1"/>
@@ -22432,16 +22248,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="46" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="46" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>27</v>
       </c>
       <c r="G1" s="46" t="s">
         <v>8</v>
@@ -22451,20 +22267,20 @@
       </c>
       <c r="I1" s="16"/>
       <c r="J1" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="58" t="s">
-        <v>18</v>
-      </c>
       <c r="M1" s="58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N1" s="54"/>
       <c r="O1" s="65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P1" s="65"/>
       <c r="Q1" s="65"/>
@@ -25819,7 +25635,7 @@
       </c>
       <c r="I115" s="21"/>
       <c r="J115" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K115" s="59">
         <f>AVERAGE(D:D)</f>
@@ -25953,7 +25769,7 @@
       </c>
       <c r="I117" s="21"/>
       <c r="J117" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K117" s="61">
         <f>MIN(B:B)</f>
@@ -26018,7 +25834,7 @@
       </c>
       <c r="I118" s="21"/>
       <c r="J118" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K118" s="62">
         <f>MAX(B:B)</f>
@@ -26083,7 +25899,7 @@
       </c>
       <c r="I119" s="21"/>
       <c r="J119" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K119" s="61">
         <f>K118-K117</f>
@@ -26099,7 +25915,7 @@
       </c>
       <c r="N119" s="55"/>
       <c r="O119" s="53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P119" s="20"/>
       <c r="Q119" s="20"/>
@@ -26150,7 +25966,7 @@
       </c>
       <c r="I120" s="21"/>
       <c r="J120" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K120" s="35">
         <f>K118/K117-1</f>
@@ -26332,7 +26148,7 @@
       <c r="M123" s="19"/>
       <c r="N123" s="19"/>
       <c r="O123" s="64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P123" s="20"/>
       <c r="Q123" s="20"/>
@@ -26388,7 +26204,7 @@
       <c r="M124" s="19"/>
       <c r="N124" s="19"/>
       <c r="O124" s="64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P124" s="20"/>
       <c r="Q124" s="20"/>
@@ -26444,7 +26260,7 @@
       <c r="M125" s="19"/>
       <c r="N125" s="19"/>
       <c r="O125" s="64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P125" s="20"/>
       <c r="Q125" s="20"/>
@@ -26556,7 +26372,7 @@
       <c r="M127" s="19"/>
       <c r="N127" s="19"/>
       <c r="O127" s="64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P127" s="20"/>
       <c r="Q127" s="20"/>
@@ -26612,7 +26428,7 @@
       <c r="M128" s="19"/>
       <c r="N128" s="19"/>
       <c r="O128" s="64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P128" s="20"/>
       <c r="Q128" s="20"/>
@@ -26668,7 +26484,7 @@
       <c r="M129" s="19"/>
       <c r="N129" s="19"/>
       <c r="O129" s="64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P129" s="20"/>
       <c r="Q129" s="20"/>
@@ -26902,7 +26718,7 @@
       <c r="AC133" s="19"/>
       <c r="AD133" s="19"/>
     </row>
-    <row r="134" spans="1:30" customFormat="1" ht="20">
+    <row r="134" spans="1:30" customFormat="1" ht="21">
       <c r="A134" s="39">
         <v>1882</v>
       </c>
@@ -34101,10 +33917,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB935BC4-0227-C04D-A013-B6800F2663A7}">
+  <sheetPr>
+    <tabColor theme="2"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D461AACE-758D-AA4C-AECD-64900A07EAA2}">
   <dimension ref="A1:F1211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A676" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -64258,40 +64141,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB935BC4-0227-C04D-A013-B6800F2663A7}">
-  <sheetPr>
-    <tabColor theme="2"/>
-  </sheetPr>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>